--- a/data/pca/factorExposure/factorExposure_2009-09-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-09-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01527578734514374</v>
+        <v>0.01694657224685706</v>
       </c>
       <c r="C2">
-        <v>-0.001616563292348963</v>
+        <v>0.0009181466326102695</v>
       </c>
       <c r="D2">
-        <v>-0.0008547804084691582</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.008681108717768539</v>
+      </c>
+      <c r="E2">
+        <v>0.001704989769153533</v>
+      </c>
+      <c r="F2">
+        <v>-0.01248479458772673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1008861376221159</v>
+        <v>0.09378863086485571</v>
       </c>
       <c r="C4">
-        <v>-0.01946304925265643</v>
+        <v>0.01450705449438326</v>
       </c>
       <c r="D4">
-        <v>0.06738095756564932</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0837098390320211</v>
+      </c>
+      <c r="E4">
+        <v>0.02849135168653878</v>
+      </c>
+      <c r="F4">
+        <v>0.03193913888917178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1361964305388105</v>
+        <v>0.1587862677378527</v>
       </c>
       <c r="C6">
-        <v>-0.02514776432835659</v>
+        <v>0.0263762387169689</v>
       </c>
       <c r="D6">
-        <v>-0.01491778763953851</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02295855572551151</v>
+      </c>
+      <c r="E6">
+        <v>0.01051100219874507</v>
+      </c>
+      <c r="F6">
+        <v>0.04363363510071146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07032555532846908</v>
+        <v>0.06351049190162572</v>
       </c>
       <c r="C7">
-        <v>-0.002168119991029103</v>
+        <v>-0.001658059670779968</v>
       </c>
       <c r="D7">
-        <v>0.03408251453327524</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05276897770025032</v>
+      </c>
+      <c r="E7">
+        <v>0.01172008288130822</v>
+      </c>
+      <c r="F7">
+        <v>0.04786903035264446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06233764477067325</v>
+        <v>0.05732989646532825</v>
       </c>
       <c r="C8">
-        <v>0.01083386987899265</v>
+        <v>-0.01337703741947715</v>
       </c>
       <c r="D8">
-        <v>0.01627681251808976</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03222186465995502</v>
+      </c>
+      <c r="E8">
+        <v>0.01753495969082504</v>
+      </c>
+      <c r="F8">
+        <v>-0.02711203005573354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07942594147343217</v>
+        <v>0.07093630249332571</v>
       </c>
       <c r="C9">
-        <v>-0.01650354940706552</v>
+        <v>0.01023104652879325</v>
       </c>
       <c r="D9">
-        <v>0.06562781759584781</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08688998902580632</v>
+      </c>
+      <c r="E9">
+        <v>0.02325289109520922</v>
+      </c>
+      <c r="F9">
+        <v>0.04792394459860185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08295849519142656</v>
+        <v>0.0919680572920131</v>
       </c>
       <c r="C10">
-        <v>-0.008331638083601952</v>
+        <v>0.02102104894825319</v>
       </c>
       <c r="D10">
-        <v>-0.1707736445918503</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1649668747385031</v>
+      </c>
+      <c r="E10">
+        <v>-0.0323103903152242</v>
+      </c>
+      <c r="F10">
+        <v>-0.05524115657501397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.0954959053347879</v>
+        <v>0.08808869741664435</v>
       </c>
       <c r="C11">
-        <v>-0.01673482458098188</v>
+        <v>0.01022678260376493</v>
       </c>
       <c r="D11">
-        <v>0.09801175359478929</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1170660350161211</v>
+      </c>
+      <c r="E11">
+        <v>0.04585815829427049</v>
+      </c>
+      <c r="F11">
+        <v>0.02323322253320016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.1021532334968914</v>
+        <v>0.09217674277975967</v>
       </c>
       <c r="C12">
-        <v>-0.01511229896633705</v>
+        <v>0.007640281305963969</v>
       </c>
       <c r="D12">
-        <v>0.09568989166080265</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1319955194694332</v>
+      </c>
+      <c r="E12">
+        <v>0.04611511191645876</v>
+      </c>
+      <c r="F12">
+        <v>0.02916357621932704</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04309963679198487</v>
+        <v>0.04152642389288796</v>
       </c>
       <c r="C13">
-        <v>-0.00588170821120468</v>
+        <v>0.0023452181012637</v>
       </c>
       <c r="D13">
-        <v>0.03691227831599065</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05393338889189213</v>
+      </c>
+      <c r="E13">
+        <v>-0.00442884337475962</v>
+      </c>
+      <c r="F13">
+        <v>0.001818599997421457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02265544039022433</v>
+        <v>0.02410707225020149</v>
       </c>
       <c r="C14">
-        <v>-0.01517416926478825</v>
+        <v>0.01381194528998127</v>
       </c>
       <c r="D14">
-        <v>0.02087970890385504</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03282409098146476</v>
+      </c>
+      <c r="E14">
+        <v>0.01873919607408215</v>
+      </c>
+      <c r="F14">
+        <v>0.01348002122207433</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03510337280219297</v>
+        <v>0.03271651464831133</v>
       </c>
       <c r="C15">
-        <v>-0.007757966667501772</v>
+        <v>0.004567620326987438</v>
       </c>
       <c r="D15">
-        <v>0.02447024664655404</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04473712206498025</v>
+      </c>
+      <c r="E15">
+        <v>0.005761515559351043</v>
+      </c>
+      <c r="F15">
+        <v>0.02458662544885233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07861000648763693</v>
+        <v>0.07429239846300692</v>
       </c>
       <c r="C16">
-        <v>-0.008577853549662147</v>
+        <v>0.000828821493608588</v>
       </c>
       <c r="D16">
-        <v>0.09641550062818419</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1276693367975386</v>
+      </c>
+      <c r="E16">
+        <v>0.06060634286613446</v>
+      </c>
+      <c r="F16">
+        <v>0.02724571566670708</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0006249744688395216</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0001769834325604097</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001139274191395261</v>
+      </c>
+      <c r="E17">
+        <v>0.000766392152402693</v>
+      </c>
+      <c r="F17">
+        <v>-0.001113296892497292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.002571143922544528</v>
+        <v>0.03623103546664987</v>
       </c>
       <c r="C18">
-        <v>0.0008602819853765575</v>
+        <v>-0.002986303699074241</v>
       </c>
       <c r="D18">
-        <v>0.003968990796285595</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01597458117952304</v>
+      </c>
+      <c r="E18">
+        <v>-0.00896244363369981</v>
+      </c>
+      <c r="F18">
+        <v>-0.009301838550945433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06402652134882358</v>
+        <v>0.06165704617660515</v>
       </c>
       <c r="C20">
-        <v>-0.006272486905820932</v>
+        <v>-6.080110712779103e-05</v>
       </c>
       <c r="D20">
-        <v>0.04018808647966585</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07796163945285688</v>
+      </c>
+      <c r="E20">
+        <v>0.05596681963531178</v>
+      </c>
+      <c r="F20">
+        <v>0.02588361413266737</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.0461116422729143</v>
+        <v>0.04053941490859246</v>
       </c>
       <c r="C21">
-        <v>-0.009746729349567418</v>
+        <v>0.006369289016446244</v>
       </c>
       <c r="D21">
-        <v>0.01252758873801493</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03788346424972244</v>
+      </c>
+      <c r="E21">
+        <v>-0.001872048617585792</v>
+      </c>
+      <c r="F21">
+        <v>-0.02473750463332196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.03461186789711403</v>
+        <v>0.04305617173743088</v>
       </c>
       <c r="C22">
-        <v>-0.0004395601923868244</v>
+        <v>0.000352963066432402</v>
       </c>
       <c r="D22">
-        <v>-0.01391834275572165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.007147122487080556</v>
+      </c>
+      <c r="E22">
+        <v>0.03543273427689354</v>
+      </c>
+      <c r="F22">
+        <v>-0.03690968474344785</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.03456912509242992</v>
+        <v>0.04303196723123596</v>
       </c>
       <c r="C23">
-        <v>-0.0004316642044877991</v>
+        <v>0.0003445401825242731</v>
       </c>
       <c r="D23">
-        <v>-0.01389486884585327</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.007162658590591098</v>
+      </c>
+      <c r="E23">
+        <v>0.03561519690398129</v>
+      </c>
+      <c r="F23">
+        <v>-0.03687122259833953</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08597157525702605</v>
+        <v>0.07980696023822739</v>
       </c>
       <c r="C24">
-        <v>-0.008466285566015934</v>
+        <v>0.001443137822427381</v>
       </c>
       <c r="D24">
-        <v>0.1042799936347048</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1214337732741697</v>
+      </c>
+      <c r="E24">
+        <v>0.04854809410102928</v>
+      </c>
+      <c r="F24">
+        <v>0.02756970230633687</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.09352717185702272</v>
+        <v>0.0853672087940943</v>
       </c>
       <c r="C25">
-        <v>-0.01049688420952144</v>
+        <v>0.004228145873315968</v>
       </c>
       <c r="D25">
-        <v>0.08867895754538097</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1095181885964537</v>
+      </c>
+      <c r="E25">
+        <v>0.03200413436969964</v>
+      </c>
+      <c r="F25">
+        <v>0.02758144951510036</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.06038900515208884</v>
+        <v>0.05896838633029543</v>
       </c>
       <c r="C26">
-        <v>-0.01753963720721749</v>
+        <v>0.01429794602053638</v>
       </c>
       <c r="D26">
-        <v>0.01269333873992201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0408363775539741</v>
+      </c>
+      <c r="E26">
+        <v>0.02842437011693421</v>
+      </c>
+      <c r="F26">
+        <v>-0.006834864263249298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1341787711338021</v>
+        <v>0.1423354459379212</v>
       </c>
       <c r="C28">
-        <v>-0.003624470590772519</v>
+        <v>0.02228677081621403</v>
       </c>
       <c r="D28">
-        <v>-0.278011360506456</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2611891940243571</v>
+      </c>
+      <c r="E28">
+        <v>-0.06692426621309311</v>
+      </c>
+      <c r="F28">
+        <v>0.00734655288959278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02619759425907129</v>
+        <v>0.02870093797493967</v>
       </c>
       <c r="C29">
-        <v>-0.009855038439910041</v>
+        <v>0.008689933374424563</v>
       </c>
       <c r="D29">
-        <v>0.0164927817180848</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03106138830849127</v>
+      </c>
+      <c r="E29">
+        <v>0.01380380004107689</v>
+      </c>
+      <c r="F29">
+        <v>-0.01309954720683531</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.07040974588120015</v>
+        <v>0.05889365472497263</v>
       </c>
       <c r="C30">
-        <v>-0.009083485808829264</v>
+        <v>0.002471943377164992</v>
       </c>
       <c r="D30">
-        <v>0.07475178226046035</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08955213786278395</v>
+      </c>
+      <c r="E30">
+        <v>0.01543575187794006</v>
+      </c>
+      <c r="F30">
+        <v>0.07839684083685125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.0521049851023215</v>
+        <v>0.05092616546292768</v>
       </c>
       <c r="C31">
-        <v>-0.01594165247213012</v>
+        <v>0.01534677237444475</v>
       </c>
       <c r="D31">
-        <v>0.01948807616085486</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02499826634924633</v>
+      </c>
+      <c r="E31">
+        <v>0.02855878849042663</v>
+      </c>
+      <c r="F31">
+        <v>-0.001341549725173078</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04707027766965564</v>
+        <v>0.05109318856194817</v>
       </c>
       <c r="C32">
-        <v>-0.001082825109198972</v>
+        <v>-0.002031578672278721</v>
       </c>
       <c r="D32">
-        <v>0.02026351572319684</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03655648862163615</v>
+      </c>
+      <c r="E32">
+        <v>0.03386024139367134</v>
+      </c>
+      <c r="F32">
+        <v>0.003919285710232779</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09866931635063249</v>
+        <v>0.08903984072271934</v>
       </c>
       <c r="C33">
-        <v>-0.01281758580276671</v>
+        <v>0.006637215576099656</v>
       </c>
       <c r="D33">
-        <v>0.07787392970229873</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1012410649307203</v>
+      </c>
+      <c r="E33">
+        <v>0.04327906078319189</v>
+      </c>
+      <c r="F33">
+        <v>0.03779682971885965</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07603567449985038</v>
+        <v>0.06782499160359609</v>
       </c>
       <c r="C34">
-        <v>-0.01523033351008087</v>
+        <v>0.009944008931294174</v>
       </c>
       <c r="D34">
-        <v>0.08852093555602024</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1093762126664657</v>
+      </c>
+      <c r="E34">
+        <v>0.03421819982268191</v>
+      </c>
+      <c r="F34">
+        <v>0.03390092754894639</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02243930703676925</v>
+        <v>0.02509736532308842</v>
       </c>
       <c r="C35">
-        <v>-0.002431182234393774</v>
+        <v>0.002505521422135277</v>
       </c>
       <c r="D35">
-        <v>0.003693215644390334</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01128977265508433</v>
+      </c>
+      <c r="E35">
+        <v>0.01164064204411967</v>
+      </c>
+      <c r="F35">
+        <v>0.001039551816603218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.018642935935951</v>
+        <v>0.02760026656783496</v>
       </c>
       <c r="C36">
-        <v>-0.00923124529151787</v>
+        <v>0.006793434552292213</v>
       </c>
       <c r="D36">
-        <v>0.02840170364702037</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03994558325991566</v>
+      </c>
+      <c r="E36">
+        <v>0.01647305220437234</v>
+      </c>
+      <c r="F36">
+        <v>0.01588892487125855</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0006725463108972057</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0005787345001910433</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002456647030433236</v>
+      </c>
+      <c r="E37">
+        <v>-0.001329173946517251</v>
+      </c>
+      <c r="F37">
+        <v>0.000547175890160232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0008884302042084627</v>
+        <v>-0.0005876495449829852</v>
       </c>
       <c r="C38">
-        <v>0.000115017036654995</v>
+        <v>-0.0001914441172259477</v>
       </c>
       <c r="D38">
-        <v>0.001483956541948255</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0007569874433188312</v>
+      </c>
+      <c r="E38">
+        <v>-0.0002228730498484108</v>
+      </c>
+      <c r="F38">
+        <v>-0.0003356082345952741</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1257453649134963</v>
+        <v>0.1042234471535488</v>
       </c>
       <c r="C39">
-        <v>-0.02315746908474262</v>
+        <v>0.01536627992022721</v>
       </c>
       <c r="D39">
-        <v>0.1421800903181265</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.155015776867772</v>
+      </c>
+      <c r="E39">
+        <v>0.0593952172392117</v>
+      </c>
+      <c r="F39">
+        <v>0.0303095144116758</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.0317095480234033</v>
+        <v>0.04137884918456861</v>
       </c>
       <c r="C40">
-        <v>-0.009580996815242665</v>
+        <v>0.007042100820732931</v>
       </c>
       <c r="D40">
-        <v>-0.008705844671332707</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03041884029406749</v>
+      </c>
+      <c r="E40">
+        <v>0.001785068534853323</v>
+      </c>
+      <c r="F40">
+        <v>-0.01565202088917535</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02506948313782615</v>
+        <v>0.02798442628296784</v>
       </c>
       <c r="C41">
-        <v>-0.007263778454120132</v>
+        <v>0.006877144322882701</v>
       </c>
       <c r="D41">
-        <v>0.007465955306572756</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01097339320401908</v>
+      </c>
+      <c r="E41">
+        <v>0.0124269143253104</v>
+      </c>
+      <c r="F41">
+        <v>-0.005720918079149581</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03831822045051901</v>
+        <v>0.04072699453049054</v>
       </c>
       <c r="C43">
-        <v>-0.00818272807870154</v>
+        <v>0.007021670285281559</v>
       </c>
       <c r="D43">
-        <v>0.00821429618491761</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01907176845099511</v>
+      </c>
+      <c r="E43">
+        <v>0.02529060385823957</v>
+      </c>
+      <c r="F43">
+        <v>-0.01219450503999938</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.08475730121455392</v>
+        <v>0.07919468280167374</v>
       </c>
       <c r="C44">
-        <v>-0.0264367995849826</v>
+        <v>0.01913212856118548</v>
       </c>
       <c r="D44">
-        <v>0.07102083810948115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09768807699695127</v>
+      </c>
+      <c r="E44">
+        <v>0.06125526164341247</v>
+      </c>
+      <c r="F44">
+        <v>0.1560322718834057</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.01725894558823014</v>
+        <v>0.02341173691600283</v>
       </c>
       <c r="C46">
-        <v>-0.004026142503726449</v>
+        <v>0.003269123404429902</v>
       </c>
       <c r="D46">
-        <v>-0.0005552706545766908</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01344250897525065</v>
+      </c>
+      <c r="E46">
+        <v>0.02639056006206219</v>
+      </c>
+      <c r="F46">
+        <v>-0.005893019454130354</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05164444652475817</v>
+        <v>0.05251468926712335</v>
       </c>
       <c r="C47">
-        <v>-0.003693409949059163</v>
+        <v>0.003472037792826852</v>
       </c>
       <c r="D47">
-        <v>0.003937288083773373</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01329012111721479</v>
+      </c>
+      <c r="E47">
+        <v>0.0234629152404681</v>
+      </c>
+      <c r="F47">
+        <v>-0.03178282944249065</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04715000515588585</v>
+        <v>0.05031033090073216</v>
       </c>
       <c r="C48">
-        <v>-0.005415266351203633</v>
+        <v>0.002130472181064855</v>
       </c>
       <c r="D48">
-        <v>0.03739985015610589</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05030746927273723</v>
+      </c>
+      <c r="E48">
+        <v>-0.004937314430535504</v>
+      </c>
+      <c r="F48">
+        <v>0.01011941857109678</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2049519926905911</v>
+        <v>0.2002286374541575</v>
       </c>
       <c r="C49">
-        <v>-0.0155036000795189</v>
+        <v>0.01878664049385626</v>
       </c>
       <c r="D49">
-        <v>-0.007076811405299983</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.006154336129188301</v>
+      </c>
+      <c r="E49">
+        <v>0.03084102530707226</v>
+      </c>
+      <c r="F49">
+        <v>0.03754127277356849</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.05220741002991819</v>
+        <v>0.05123730898912743</v>
       </c>
       <c r="C50">
-        <v>-0.01193915842918889</v>
+        <v>0.01106760260627877</v>
       </c>
       <c r="D50">
-        <v>0.01819931633296065</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02480230221321585</v>
+      </c>
+      <c r="E50">
+        <v>0.03003788356723529</v>
+      </c>
+      <c r="F50">
+        <v>0.009767478497614402</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1592131761444516</v>
+        <v>0.148268498368371</v>
       </c>
       <c r="C52">
-        <v>-0.01571214247238056</v>
+        <v>0.01705101773098323</v>
       </c>
       <c r="D52">
-        <v>0.05805338043933235</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04250829154410078</v>
+      </c>
+      <c r="E52">
+        <v>0.02025987393051071</v>
+      </c>
+      <c r="F52">
+        <v>0.04368405177257598</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1685148944838148</v>
+        <v>0.1712173877247842</v>
       </c>
       <c r="C53">
-        <v>-0.01531571600989722</v>
+        <v>0.01957944632114525</v>
       </c>
       <c r="D53">
-        <v>0.02720850821985484</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005241906231723725</v>
+      </c>
+      <c r="E53">
+        <v>0.02844432534034539</v>
+      </c>
+      <c r="F53">
+        <v>0.07456688619425134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.02271016491072678</v>
+        <v>0.02084293517807098</v>
       </c>
       <c r="C54">
-        <v>-0.01224694020656846</v>
+        <v>0.01128882633170639</v>
       </c>
       <c r="D54">
-        <v>0.02038068294548103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03462151555300999</v>
+      </c>
+      <c r="E54">
+        <v>0.02193760268904859</v>
+      </c>
+      <c r="F54">
+        <v>-0.004949154793402889</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1175342250354264</v>
+        <v>0.1146445392020017</v>
       </c>
       <c r="C55">
-        <v>-0.01410866357138075</v>
+        <v>0.01736567328060752</v>
       </c>
       <c r="D55">
-        <v>0.01962053676776615</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.007492806761337651</v>
+      </c>
+      <c r="E55">
+        <v>0.02391398214258294</v>
+      </c>
+      <c r="F55">
+        <v>0.04728141003306591</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1758658035500036</v>
+        <v>0.1770556266501729</v>
       </c>
       <c r="C56">
-        <v>-0.01303281222064379</v>
+        <v>0.01750971014732385</v>
       </c>
       <c r="D56">
-        <v>0.005735777374876614</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.00180968398676657</v>
+      </c>
+      <c r="E56">
+        <v>0.03385451024603064</v>
+      </c>
+      <c r="F56">
+        <v>0.05205323443737569</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04215294493791891</v>
+        <v>0.04481066800186772</v>
       </c>
       <c r="C58">
-        <v>-0.006625575032343615</v>
+        <v>-0.0005036334215223409</v>
       </c>
       <c r="D58">
-        <v>0.04709318880849878</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07168565933878382</v>
+      </c>
+      <c r="E58">
+        <v>0.03227436360072639</v>
+      </c>
+      <c r="F58">
+        <v>-0.03887269083347811</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1665207414596411</v>
+        <v>0.1679539951910886</v>
       </c>
       <c r="C59">
-        <v>-0.004527444277261821</v>
+        <v>0.0223695067601002</v>
       </c>
       <c r="D59">
-        <v>-0.2266855927010088</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.217114914969619</v>
+      </c>
+      <c r="E59">
+        <v>-0.04601804933868649</v>
+      </c>
+      <c r="F59">
+        <v>-0.03567796194016667</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2467373315033995</v>
+        <v>0.2318601917018982</v>
       </c>
       <c r="C60">
-        <v>0.005423010399420261</v>
+        <v>-0.002371820803239627</v>
       </c>
       <c r="D60">
-        <v>0.05773335329041576</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04136911653988624</v>
+      </c>
+      <c r="E60">
+        <v>0.009189406204224307</v>
+      </c>
+      <c r="F60">
+        <v>-0.005296637074641392</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09594210871450326</v>
+        <v>0.08028775289724209</v>
       </c>
       <c r="C61">
-        <v>-0.01691418828906255</v>
+        <v>0.01109027367471925</v>
       </c>
       <c r="D61">
-        <v>0.09545911480311339</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1179828680090326</v>
+      </c>
+      <c r="E61">
+        <v>0.03926598960130065</v>
+      </c>
+      <c r="F61">
+        <v>0.0137764631035494</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1716397174875729</v>
+        <v>0.1695801997294757</v>
       </c>
       <c r="C62">
-        <v>-0.01658071365628046</v>
+        <v>0.02048873556757403</v>
       </c>
       <c r="D62">
-        <v>0.009636043242333034</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005734362145602277</v>
+      </c>
+      <c r="E62">
+        <v>0.03395675753859849</v>
+      </c>
+      <c r="F62">
+        <v>0.03559638033277262</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04595945892342073</v>
+        <v>0.04577164906955788</v>
       </c>
       <c r="C63">
-        <v>-0.006005882650897283</v>
+        <v>0.001612226938584309</v>
       </c>
       <c r="D63">
-        <v>0.03919713254295635</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05912649749519182</v>
+      </c>
+      <c r="E63">
+        <v>0.02322432682622997</v>
+      </c>
+      <c r="F63">
+        <v>0.003736176566453404</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1031864342208052</v>
+        <v>0.1104431268684149</v>
       </c>
       <c r="C64">
-        <v>-0.01377324782262987</v>
+        <v>0.01128404249179943</v>
       </c>
       <c r="D64">
-        <v>0.01916502602054253</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04358297438341159</v>
+      </c>
+      <c r="E64">
+        <v>0.02228655814580806</v>
+      </c>
+      <c r="F64">
+        <v>0.02550460272654614</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1288055015030367</v>
+        <v>0.1500713544723681</v>
       </c>
       <c r="C65">
-        <v>-0.03088184935216822</v>
+        <v>0.03385382052487306</v>
       </c>
       <c r="D65">
-        <v>-0.0313527141710112</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04319732266889783</v>
+      </c>
+      <c r="E65">
+        <v>0.006811639083129943</v>
+      </c>
+      <c r="F65">
+        <v>0.03844974562351765</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1522559836156629</v>
+        <v>0.123769499874326</v>
       </c>
       <c r="C66">
-        <v>-0.01966841511429619</v>
+        <v>0.01327506943437421</v>
       </c>
       <c r="D66">
-        <v>0.1234702772989651</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1433960517608782</v>
+      </c>
+      <c r="E66">
+        <v>0.0653758860271885</v>
+      </c>
+      <c r="F66">
+        <v>0.0347974474884131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06244452786674717</v>
+        <v>0.05747652027802727</v>
       </c>
       <c r="C67">
-        <v>-0.005091352011108498</v>
+        <v>0.002722945592820693</v>
       </c>
       <c r="D67">
-        <v>0.06040012336800984</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05612316300674274</v>
+      </c>
+      <c r="E67">
+        <v>0.01657390635629648</v>
+      </c>
+      <c r="F67">
+        <v>-0.031176597906958</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1047784690837361</v>
+        <v>0.1164202092621623</v>
       </c>
       <c r="C68">
-        <v>-0.01415117755583347</v>
+        <v>0.03289124471072352</v>
       </c>
       <c r="D68">
-        <v>-0.267533424757107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2611082724367892</v>
+      </c>
+      <c r="E68">
+        <v>-0.08685092569636983</v>
+      </c>
+      <c r="F68">
+        <v>0.003085792580246033</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03960799679697222</v>
+        <v>0.03914813657191692</v>
       </c>
       <c r="C69">
-        <v>-0.0004268573623685092</v>
+        <v>0.001113417463621457</v>
       </c>
       <c r="D69">
-        <v>0.01055498645644826</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008385846879857328</v>
+      </c>
+      <c r="E69">
+        <v>0.02373545235447817</v>
+      </c>
+      <c r="F69">
+        <v>0.0009499292165168966</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06094444610891148</v>
+        <v>0.06675119185042461</v>
       </c>
       <c r="C70">
-        <v>0.02421353917321759</v>
+        <v>-0.02748393907708226</v>
       </c>
       <c r="D70">
-        <v>-0.02573037186157346</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02380171374105112</v>
+      </c>
+      <c r="E70">
+        <v>-0.03305088341382623</v>
+      </c>
+      <c r="F70">
+        <v>-0.1857789733885148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1183984976844153</v>
+        <v>0.1363227463384939</v>
       </c>
       <c r="C71">
-        <v>-0.01798278783927496</v>
+        <v>0.0372586284814576</v>
       </c>
       <c r="D71">
-        <v>-0.2869079756122218</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2726572276852711</v>
+      </c>
+      <c r="E71">
+        <v>-0.09737126193305252</v>
+      </c>
+      <c r="F71">
+        <v>0.008512332938293975</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1364823367634692</v>
+        <v>0.1426080955707717</v>
       </c>
       <c r="C72">
-        <v>-0.02433784167262395</v>
+        <v>0.02714323982571766</v>
       </c>
       <c r="D72">
-        <v>0.005369264886685121</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.003623738147272183</v>
+      </c>
+      <c r="E72">
+        <v>0.03593236046335521</v>
+      </c>
+      <c r="F72">
+        <v>0.03220520079342797</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2024028570752501</v>
+        <v>0.2040673182109484</v>
       </c>
       <c r="C73">
-        <v>-0.01148782015394763</v>
+        <v>0.0127497054692291</v>
       </c>
       <c r="D73">
-        <v>0.02096736084363634</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01757037111681347</v>
+      </c>
+      <c r="E73">
+        <v>0.06326557000624286</v>
+      </c>
+      <c r="F73">
+        <v>0.03757998358562598</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09178459315536078</v>
+        <v>0.09495504500076016</v>
       </c>
       <c r="C74">
-        <v>-0.01111834134266384</v>
+        <v>0.01332968648294039</v>
       </c>
       <c r="D74">
-        <v>0.03212261765113851</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01692211016542894</v>
+      </c>
+      <c r="E74">
+        <v>0.04419424315428267</v>
+      </c>
+      <c r="F74">
+        <v>0.05838504340509912</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1367837163110101</v>
+        <v>0.1276274982340267</v>
       </c>
       <c r="C75">
-        <v>-0.02594929483581003</v>
+        <v>0.02815353243068099</v>
       </c>
       <c r="D75">
-        <v>0.04034452090593813</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03035074054248448</v>
+      </c>
+      <c r="E75">
+        <v>0.05811723389055352</v>
+      </c>
+      <c r="F75">
+        <v>0.02286448807873847</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07295525690056594</v>
+        <v>0.08821462504916225</v>
       </c>
       <c r="C77">
-        <v>-0.0155410747391787</v>
+        <v>0.008010195427832789</v>
       </c>
       <c r="D77">
-        <v>0.09261548247976843</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.111737663969977</v>
+      </c>
+      <c r="E77">
+        <v>0.03847697498247993</v>
+      </c>
+      <c r="F77">
+        <v>0.03547586036046056</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1039411882683361</v>
+        <v>0.1012085504536442</v>
       </c>
       <c r="C78">
-        <v>-0.04679904250513585</v>
+        <v>0.03969927848594126</v>
       </c>
       <c r="D78">
-        <v>0.1011711796009341</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1125808209876611</v>
+      </c>
+      <c r="E78">
+        <v>0.07467787222759784</v>
+      </c>
+      <c r="F78">
+        <v>0.04864226262190099</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.165794244893832</v>
+        <v>0.1637444572063679</v>
       </c>
       <c r="C79">
-        <v>-0.02004572113807158</v>
+        <v>0.02286154002780233</v>
       </c>
       <c r="D79">
-        <v>0.01327575635381613</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01458823391538953</v>
+      </c>
+      <c r="E79">
+        <v>0.04636378423458912</v>
+      </c>
+      <c r="F79">
+        <v>0.01275985316336065</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08900979676459987</v>
+        <v>0.08214257947941535</v>
       </c>
       <c r="C80">
-        <v>-0.0005268998988003957</v>
+        <v>-0.001088916612351077</v>
       </c>
       <c r="D80">
-        <v>0.05169301264228172</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05618938028845032</v>
+      </c>
+      <c r="E80">
+        <v>0.03538254806408991</v>
+      </c>
+      <c r="F80">
+        <v>-0.02089834840767732</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1207669803414917</v>
+        <v>0.118910664004141</v>
       </c>
       <c r="C81">
-        <v>-0.02850141755370332</v>
+        <v>0.03182766130190597</v>
       </c>
       <c r="D81">
-        <v>0.04702981326055072</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01546174003419355</v>
+      </c>
+      <c r="E81">
+        <v>0.05694912592115024</v>
+      </c>
+      <c r="F81">
+        <v>0.0191634175259444</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1671559323502583</v>
+        <v>0.1654172563343736</v>
       </c>
       <c r="C82">
-        <v>-0.01977409271589212</v>
+        <v>0.02483526693255374</v>
       </c>
       <c r="D82">
-        <v>0.02987878767374427</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.003812925734311115</v>
+      </c>
+      <c r="E82">
+        <v>0.02605767168641263</v>
+      </c>
+      <c r="F82">
+        <v>0.08216667916184009</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.07002852408383088</v>
+        <v>0.05831062209134444</v>
       </c>
       <c r="C83">
-        <v>-0.005395541955924476</v>
+        <v>0.002591681336107455</v>
       </c>
       <c r="D83">
-        <v>0.03061093403842724</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05112158062156087</v>
+      </c>
+      <c r="E83">
+        <v>0.002978379677914</v>
+      </c>
+      <c r="F83">
+        <v>-0.03020858424546854</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.0703561559931116</v>
+        <v>0.05986942752441853</v>
       </c>
       <c r="C84">
-        <v>-0.01419802289308408</v>
+        <v>0.01123842019245727</v>
       </c>
       <c r="D84">
-        <v>0.05130805769636565</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06323386173754816</v>
+      </c>
+      <c r="E84">
+        <v>0.007268522275402895</v>
+      </c>
+      <c r="F84">
+        <v>0.00612533110068496</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.139589045831232</v>
+        <v>0.1356068398738824</v>
       </c>
       <c r="C85">
-        <v>-0.02534651561924597</v>
+        <v>0.02814890239263663</v>
       </c>
       <c r="D85">
-        <v>0.02119954962133499</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009326950266477483</v>
+      </c>
+      <c r="E85">
+        <v>0.03630521968360876</v>
+      </c>
+      <c r="F85">
+        <v>0.04807680039500956</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.09751263379556674</v>
+        <v>0.09492361936910257</v>
       </c>
       <c r="C86">
-        <v>0.002054854729161016</v>
+        <v>-0.005509957103716786</v>
       </c>
       <c r="D86">
-        <v>-0.02913381416887798</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04235647232038608</v>
+      </c>
+      <c r="E86">
+        <v>0.2320544292779279</v>
+      </c>
+      <c r="F86">
+        <v>-0.903533366068516</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1020759675640098</v>
+        <v>0.09431524601231106</v>
       </c>
       <c r="C87">
-        <v>-0.0275723311946846</v>
+        <v>0.01912363175164921</v>
       </c>
       <c r="D87">
-        <v>0.04896600502593735</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09395269365132211</v>
+      </c>
+      <c r="E87">
+        <v>-0.05491566232260624</v>
+      </c>
+      <c r="F87">
+        <v>0.0476357081045346</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05626837233408406</v>
+        <v>0.06072428690860227</v>
       </c>
       <c r="C88">
-        <v>-0.005561032893602078</v>
+        <v>0.002144417281128119</v>
       </c>
       <c r="D88">
-        <v>0.04580686168364562</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04975584138191066</v>
+      </c>
+      <c r="E88">
+        <v>0.02444260277392238</v>
+      </c>
+      <c r="F88">
+        <v>0.01416267501517329</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1182887822986037</v>
+        <v>0.1301451915499958</v>
       </c>
       <c r="C89">
-        <v>0.003437843920856446</v>
+        <v>0.01363716178448572</v>
       </c>
       <c r="D89">
-        <v>-0.2808107850812289</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2467195367652148</v>
+      </c>
+      <c r="E89">
+        <v>-0.08870358313456191</v>
+      </c>
+      <c r="F89">
+        <v>-0.00943243865397966</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1328051746372917</v>
+        <v>0.1512094793472449</v>
       </c>
       <c r="C90">
-        <v>-0.01469634893022082</v>
+        <v>0.03409675561360814</v>
       </c>
       <c r="D90">
-        <v>-0.2910386568904902</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2715129320481087</v>
+      </c>
+      <c r="E90">
+        <v>-0.1137052921919277</v>
+      </c>
+      <c r="F90">
+        <v>-0.00856033114436751</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1179132364303307</v>
+        <v>0.1209745763917171</v>
       </c>
       <c r="C91">
-        <v>-0.01540977059396734</v>
+        <v>0.01979113676651617</v>
       </c>
       <c r="D91">
-        <v>-0.001719166681136671</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01505173312997721</v>
+      </c>
+      <c r="E91">
+        <v>0.05556693003890609</v>
+      </c>
+      <c r="F91">
+        <v>-0.0003590715594221106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1442644989672241</v>
+        <v>0.1478443495135669</v>
       </c>
       <c r="C92">
-        <v>-0.002704019585506829</v>
+        <v>0.02474304418232929</v>
       </c>
       <c r="D92">
-        <v>-0.3164606135647351</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2911296807484952</v>
+      </c>
+      <c r="E92">
+        <v>-0.1012696061216437</v>
+      </c>
+      <c r="F92">
+        <v>-0.01310302991741341</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1350127940086581</v>
+        <v>0.1512244529358118</v>
       </c>
       <c r="C93">
-        <v>-0.01027883750352901</v>
+        <v>0.0290653862296658</v>
       </c>
       <c r="D93">
-        <v>-0.2722428007793398</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2670240830348689</v>
+      </c>
+      <c r="E93">
+        <v>-0.07846314594596335</v>
+      </c>
+      <c r="F93">
+        <v>0.002635985151642409</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1333934091175334</v>
+        <v>0.1282689611516769</v>
       </c>
       <c r="C94">
-        <v>-0.02335132984945691</v>
+        <v>0.02444408587754232</v>
       </c>
       <c r="D94">
-        <v>0.05677904795983831</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04212851894468268</v>
+      </c>
+      <c r="E94">
+        <v>0.05728069767472999</v>
+      </c>
+      <c r="F94">
+        <v>0.03671702870284933</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1264785592755147</v>
+        <v>0.1266714074310598</v>
       </c>
       <c r="C95">
-        <v>-0.009685774465081556</v>
+        <v>0.003077766221849977</v>
       </c>
       <c r="D95">
-        <v>0.06892609295024056</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.0948631557053382</v>
+      </c>
+      <c r="E95">
+        <v>0.04970430718233992</v>
+      </c>
+      <c r="F95">
+        <v>-0.005859150322629863</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.09507624024330973</v>
+        <v>0.1087004967009888</v>
       </c>
       <c r="C96">
-        <v>0.9900110561339476</v>
+        <v>-0.9871328374143732</v>
       </c>
       <c r="D96">
-        <v>0.008745174697505714</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05165288876316238</v>
+      </c>
+      <c r="E96">
+        <v>0.05304028688935766</v>
+      </c>
+      <c r="F96">
+        <v>0.04267782851766839</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1827844809877264</v>
+        <v>0.1910796450682435</v>
       </c>
       <c r="C97">
-        <v>0.009050952652399462</v>
+        <v>-0.006911053281064819</v>
       </c>
       <c r="D97">
-        <v>-0.02259098294659232</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02023815664745048</v>
+      </c>
+      <c r="E97">
+        <v>0.0216125388919905</v>
+      </c>
+      <c r="F97">
+        <v>-0.09312025092889065</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1975900820785264</v>
+        <v>0.2053563414499564</v>
       </c>
       <c r="C98">
-        <v>-0.006849280079633714</v>
+        <v>0.006905576044175516</v>
       </c>
       <c r="D98">
-        <v>-0.005113316973082329</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01272922981674519</v>
+      </c>
+      <c r="E98">
+        <v>-0.07825169815848776</v>
+      </c>
+      <c r="F98">
+        <v>-0.09371872084335096</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05523066277391987</v>
+        <v>0.05476022910994072</v>
       </c>
       <c r="C99">
-        <v>0.002897676186426879</v>
+        <v>-0.004585429256692482</v>
       </c>
       <c r="D99">
-        <v>0.02109594100959935</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03966147409897761</v>
+      </c>
+      <c r="E99">
+        <v>0.02229271519362064</v>
+      </c>
+      <c r="F99">
+        <v>0.002569125037391588</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1368601306921928</v>
+        <v>0.1278169383679246</v>
       </c>
       <c r="C100">
-        <v>0.03176309918069323</v>
+        <v>-0.0536896944918838</v>
       </c>
       <c r="D100">
-        <v>0.3885821728861286</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3461256288128332</v>
+      </c>
+      <c r="E100">
+        <v>-0.8852371357984009</v>
+      </c>
+      <c r="F100">
+        <v>-0.1604124353376395</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02600786167369063</v>
+        <v>0.02866409722306486</v>
       </c>
       <c r="C101">
-        <v>-0.009812174926956886</v>
+        <v>0.008715394340197365</v>
       </c>
       <c r="D101">
-        <v>0.01583638762323545</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.0306635328326155</v>
+      </c>
+      <c r="E101">
+        <v>0.01320502975869687</v>
+      </c>
+      <c r="F101">
+        <v>-0.01432478900262695</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
